--- a/watch.xlsx
+++ b/watch.xlsx
@@ -4,56 +4,38 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Iphones" sheetId="1" r:id="rId1"/>
-    <sheet name="Samsung_phones" sheetId="2" r:id="rId2"/>
-    <sheet name="Xiaomi_phones" sheetId="3" r:id="rId3"/>
-    <sheet name="Huawei_phones" sheetId="4" r:id="rId4"/>
-    <sheet name="OnePlus_phones" sheetId="5" r:id="rId5"/>
+    <sheet name="Apple" sheetId="1" r:id="rId1"/>
+    <sheet name="Samsung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Samsung A22</t>
-  </si>
-  <si>
-    <t>Samsung A52</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi Note 10</t>
-  </si>
-  <si>
-    <t>Xiaomi Mi 11 Lite 5G NE</t>
-  </si>
-  <si>
-    <t>Huawei Enjoy 60</t>
-  </si>
-  <si>
-    <t>Huawei Honor 70</t>
-  </si>
-  <si>
-    <t>One Plus 11R</t>
-  </si>
-  <si>
-    <t>One Plus 11</t>
-  </si>
-  <si>
-    <t>Iphone 14, 128Гб</t>
-  </si>
-  <si>
-    <t>Iphone 14, 256Гб</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Модель</t>
   </si>
   <si>
     <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Watch5</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Watch4</t>
+  </si>
+  <si>
+    <t>Apple Watch Ultra, 49mm</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 8, 41mm</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 8, 45mm</t>
   </si>
 </sst>
 </file>
@@ -63,7 +45,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +63,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,15 +146,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -460,40 +453,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6">
-        <v>30000</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
         <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -504,30 +505,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="1" max="1" width="55" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>15000</v>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
         <v>17000</v>
       </c>
     </row>
@@ -535,105 +545,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="55" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>35000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>23000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>28000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/watch.xlsx
+++ b/watch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Модель</t>
   </si>
@@ -29,13 +29,55 @@
     <t>Samsung Galaxy Watch4</t>
   </si>
   <si>
-    <t>Apple Watch Ultra, 49mm</t>
-  </si>
-  <si>
-    <t>Apple Watch Series 8, 41mm</t>
-  </si>
-  <si>
-    <t>Apple Watch Series 8, 45mm</t>
+    <t>Apple Watch Ultra</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 8</t>
+  </si>
+  <si>
+    <t>Apple Watch SE (2-го поколения)</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 7</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 7 Nike</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 6</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 6 Nike</t>
+  </si>
+  <si>
+    <t>Apple Watch SE</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 5</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 5 Nike</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 4</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 3</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Watch3</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Watch Active 2</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Watch Active</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Watch</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Fit</t>
   </si>
 </sst>
 </file>
@@ -55,28 +97,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,21 +181,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -453,47 +497,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="66" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
         <v>50000</v>
       </c>
     </row>
@@ -505,39 +621,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="55" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="60.75" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7">
         <v>17000</v>
       </c>
     </row>
